--- a/public/assets/templates/rab_template.xlsx
+++ b/public/assets/templates/rab_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natanael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessythewirianto/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A71A079-848C-914B-B7D3-48F0803EC2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF12E41-EB6B-8C46-ABAF-F67C7C7143A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2360" windowWidth="26840" windowHeight="15860" xr2:uid="{D7E36D2A-F0BE-A24F-96FE-E17B453999E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{D7E36D2A-F0BE-A24F-96FE-E17B453999E6}"/>
   </bookViews>
   <sheets>
     <sheet name="RAB" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
-  <si>
-    <t>Dibuat Oleh</t>
-  </si>
-  <si>
-    <t>PAPUA, 09-07-2025</t>
-  </si>
-  <si>
-    <t>TERBILANG</t>
-  </si>
-  <si>
-    <t>JUMLAH TOTAL DENGAN PPN 11%</t>
-  </si>
-  <si>
-    <t>PPN 11%</t>
-  </si>
-  <si>
-    <t>JUMLAH TOTAL A + B</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
   <si>
     <t>III</t>
   </si>
@@ -110,41 +86,467 @@
     <t xml:space="preserve">TAHUN ANGGARAN: </t>
   </si>
   <si>
-    <t>Example RAB</t>
-  </si>
-  <si>
-    <t>Example work 1</t>
-  </si>
-  <si>
-    <t>Example work 2</t>
-  </si>
-  <si>
-    <t>Example work 3</t>
-  </si>
-  <si>
-    <t>Rp-</t>
-  </si>
-  <si>
-    <t>Example item 1</t>
-  </si>
-  <si>
-    <t>Example item 2</t>
-  </si>
-  <si>
-    <t>Example item 3</t>
-  </si>
-  <si>
-    <t>Your name</t>
-  </si>
-  <si>
-    <t>Your Name</t>
+    <t>Ini Namanya SUB Kategori Pekerjaan</t>
+  </si>
+  <si>
+    <t>Ini namanya Uraian Pekerjaan</t>
+  </si>
+  <si>
+    <t>Contoh uraian pekerjaan adalah pekerjaan galian tanah</t>
+  </si>
+  <si>
+    <t>Pengukuran Ulang dan Uitzet</t>
+  </si>
+  <si>
+    <t>Ini juga SUB Kategori Pekerjaan</t>
+  </si>
+  <si>
+    <t>Pengecetan dasar</t>
+  </si>
+  <si>
+    <t>ANGKA ROMAWI   →  Subkategori Pekerjaan (Contoh: I. Pekerjaan Lapangan)</t>
+  </si>
+  <si>
+    <t>ANGKA          →  Uraian Pekerjaan (Contoh: 1. Pembersihan Lahan)</t>
+  </si>
+  <si>
+    <t>INI NAMANYA KATEGORI PEKERJAAN (PEKERJAAN PERSIAPAN)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PEKERJAAN STRUKTUR</t>
+  </si>
+  <si>
+    <t>Pekerjaan Beton Bertulang</t>
+  </si>
+  <si>
+    <t>Pengecoran Sloof</t>
+  </si>
+  <si>
+    <r>
+      <t>Kategori</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Subkategori</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tidak perlu diisi volume dan satuan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Uraian Pekerjaan (dengan angka)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> harus dilengkapi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Satuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, dan nanti akan dihitung </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Harga Satuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Jumlah Harga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jenis Baris</t>
+  </si>
+  <si>
+    <t>Format Penulisan</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>Menandai kelompok besar pekerjaan</t>
+  </si>
+  <si>
+    <t>Subkategori</t>
+  </si>
+  <si>
+    <t>Angka Romawi (I, II…)</t>
+  </si>
+  <si>
+    <t>Subkelompok dalam kategori pekerjaan</t>
+  </si>
+  <si>
+    <t>Uraian Pekerjaan</t>
+  </si>
+  <si>
+    <t>Angka 1, 2, 3…</t>
+  </si>
+  <si>
+    <t>Rincian pekerjaan yang akan dihitung RAB-nya</t>
+  </si>
+  <si>
+    <t>HURUF   →  Kategori Pekerjaan (Contoh: PEKERJAAN PERSIAPAN)</t>
+  </si>
+  <si>
+    <t>HURUF (A, B, C, D,..)</t>
+  </si>
+  <si>
+    <t>PEKERJAAN PERSIAPAN</t>
+  </si>
+  <si>
+    <t>Pekerjaan Administrasi Awal</t>
+  </si>
+  <si>
+    <t>Pengurusan IMB / Persetujuan Bangunan Gedung (PBG)</t>
+  </si>
+  <si>
+    <t>Pemasangan Papan Nama Proyek</t>
+  </si>
+  <si>
+    <t>Pengukuran dan Bouwplank</t>
+  </si>
+  <si>
+    <t>TOTAL B</t>
+  </si>
+  <si>
+    <t>Pekerjaan Pembersihan dan Pengamanan</t>
+  </si>
+  <si>
+    <t>Pembersihan Lahan dari Semak dan Sampah</t>
+  </si>
+  <si>
+    <t>Penebangan dan Pencabutan Akar Pohon</t>
+  </si>
+  <si>
+    <t>Pembongkaran Bangunan Lama (Jika ada)</t>
+  </si>
+  <si>
+    <t>Pemasangan Pagar Proyek Sementara</t>
+  </si>
+  <si>
+    <t>Mobilisasi dan Demobilisasi</t>
+  </si>
+  <si>
+    <t>Mobilisasi Alat Berat / Alat Kerja ke Lokasi Pekerjaan</t>
+  </si>
+  <si>
+    <t>Pengangkutan Material Awal</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Pekerjaan K3 dan Lingkungan</t>
+  </si>
+  <si>
+    <t>Pemasangan Rambu Keselamatan</t>
+  </si>
+  <si>
+    <t>Pengadaan APD untuk Pekerja</t>
+  </si>
+  <si>
+    <t>Penyediaan Tempat Sampah dan Saluran Air Limbah Sementara</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pekerjaan Pondasi</t>
+  </si>
+  <si>
+    <t>Galian Tanah Pondasi</t>
+  </si>
+  <si>
+    <t>Urugan Pasir Bawah Pondasi</t>
+  </si>
+  <si>
+    <t>Pasangan Batu Kali Pondasi</t>
+  </si>
+  <si>
+    <t>Urugan Kembali dengan Tanah Asli</t>
+  </si>
+  <si>
+    <t>Lantai Kerja Beton (Beton Kurus)</t>
+  </si>
+  <si>
+    <t>Plastik Cor (Sebagai Lapisan Penghalang Uap)</t>
+  </si>
+  <si>
+    <t>Pembesian Sloof (Penulangan dan Pemasangan Besi)</t>
+  </si>
+  <si>
+    <t>Pemasangan Bekisting Sloof</t>
+  </si>
+  <si>
+    <t>Pembesian Kolom Praktis</t>
+  </si>
+  <si>
+    <t>Bekisting Kolom Praktis</t>
+  </si>
+  <si>
+    <t>Pengecoran Kolom Praktis</t>
+  </si>
+  <si>
+    <t>Pembesian Balok</t>
+  </si>
+  <si>
+    <t>Bekisting Balok</t>
+  </si>
+  <si>
+    <t>Pengecoran Balok</t>
+  </si>
+  <si>
+    <t>Pembesian Plat Lantai</t>
+  </si>
+  <si>
+    <t>Bekisting Plat Lantai</t>
+  </si>
+  <si>
+    <t>Pengecoran Plat Lantai</t>
+  </si>
+  <si>
+    <t>Pekerjaan Dinding Penahan / Beton Non-Struktural</t>
+  </si>
+  <si>
+    <t>Dinding Beton Bertulang (Shearwall jika ada)</t>
+  </si>
+  <si>
+    <t>Beton Tangga (Anak Tangga, Bordes)</t>
+  </si>
+  <si>
+    <t>Beton Ramp (Jika Ada Area Inklusi)</t>
+  </si>
+  <si>
+    <t>Pekerjaan Struktur Baja Ringan (Opsional, Jika ada)</t>
+  </si>
+  <si>
+    <t>Pengadaan dan Pemasangan Rangka Atap Baja Ringan</t>
+  </si>
+  <si>
+    <t>Penutup Atap Metal / Spandek / Genteng Metal</t>
+  </si>
+  <si>
+    <t>Pengencangan dan Bracing Sistem Baja Ringan</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>PEKERJAAN ARSITEKTUR</t>
+  </si>
+  <si>
+    <t>Pekerjaan Dinding</t>
+  </si>
+  <si>
+    <t>Pasangan Bata Merah / Bata Ringan</t>
+  </si>
+  <si>
+    <t>Plesteran Dinding</t>
+  </si>
+  <si>
+    <t>Acian Dinding</t>
+  </si>
+  <si>
+    <t>Waterproofing Dinding Luar</t>
+  </si>
+  <si>
+    <t>Pemasangan Listplang</t>
+  </si>
+  <si>
+    <t>Pekerjaan Lantai</t>
+  </si>
+  <si>
+    <t>Pemasangan Keramik 30x30 / 60x60</t>
+  </si>
+  <si>
+    <t>Pemasangan Granit Lantai</t>
+  </si>
+  <si>
+    <t>Pemasangan Vinyl / Parket (opsional)</t>
+  </si>
+  <si>
+    <t>Pemasangan Tegel / Batu Alam (untuk area khusus)</t>
+  </si>
+  <si>
+    <t>Pasangan Keramik Lantai Kamar Mandi / Area Basah</t>
+  </si>
+  <si>
+    <t>Pekerjaan Plafond</t>
+  </si>
+  <si>
+    <t>Rangka Plafon Hollow</t>
+  </si>
+  <si>
+    <t>Pemasangan Plafon Gypsum</t>
+  </si>
+  <si>
+    <t>Pemasangan Plafon PVC (opsional)</t>
+  </si>
+  <si>
+    <t>Pekerjaan Pengecatan</t>
+  </si>
+  <si>
+    <t>Pengecatan Dinding Dalam (Cat Interior)</t>
+  </si>
+  <si>
+    <t>Pengecatan Dinding Luar (Cat Weatherproof)</t>
+  </si>
+  <si>
+    <t>Pengecatan Plafon</t>
+  </si>
+  <si>
+    <t>TOTAL C</t>
+  </si>
+  <si>
+    <t>TOTAL D</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Ls</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>MOHON PERHATIAN!!</t>
+  </si>
+  <si>
+    <t>KAMU HANYA PERLU MENGISI KOLOM A (NO), D (VOLUME), DAN E (SATUAN)</t>
+  </si>
+  <si>
+    <t>MENAMBAH BARIS DIPERBOLEHKAN, TETAPI DILARANG MENGHAPUS ATAU MENGEDIT KOLOM!</t>
+  </si>
+  <si>
+    <t>Jangan mengubah nama atau urutan kolom.</t>
+  </si>
+  <si>
+    <t>Gunakan format angka untuk volume dan harga.</t>
+  </si>
+  <si>
+    <t>Gunakan satuan standar yang sesuai (m, m², m³, unit, zak, kg, dll).</t>
+  </si>
+  <si>
+    <t>Baris contoh (sample) tidak akan diproses dan boleh dihapus saat diunggah.</t>
+  </si>
+  <si>
+    <t>Petunjuk Pengisian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -162,6 +564,19 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF153346"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -192,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -224,17 +639,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -269,6 +728,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,17 +1078,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999A5F9-431A-8746-9860-BD923630A938}">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
@@ -621,384 +1096,1406 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="G23" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="G8" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="28">
+        <v>1</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="28">
+        <v>2</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="28">
+        <v>3</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="28">
+        <v>4</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="28">
+        <v>5</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="28">
+        <v>6</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="28">
+        <v>1</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
+        <v>2</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
+        <v>3</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <v>4</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <v>5</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
+        <v>6</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="28">
+        <v>7</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="28">
+        <v>8</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <v>9</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
+        <v>10</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="28">
+        <v>11</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="28">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B77" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="28">
+        <v>1</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="28">
+        <v>2</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="28">
+        <v>3</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="28">
+        <v>1</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="28">
+        <v>2</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="28">
+        <v>3</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="28">
+        <v>1</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="28">
+        <v>2</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="28">
+        <v>3</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="28">
+        <v>4</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="28">
+        <v>5</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="28">
+        <v>1</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="28">
+        <v>2</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="28">
+        <v>3</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="28">
+        <v>4</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="28">
+        <v>5</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="28">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="B100" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="28">
+        <v>8</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="28">
+        <v>9</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="28">
+        <v>1</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>30.5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B105" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="28">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-      <c r="G21" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <f>"Rp-"</f>
-        <v>Rp-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
+      <c r="B106" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
